--- a/pcbd_画面レイアウト.xlsx
+++ b/pcbd_画面レイアウト.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\二村　健斗\source\repos\PCB project\PCB project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AD6EE0-5927-4592-8BFE-929C0622C950}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF48644F-AB40-4283-A1DF-9BF5527BED39}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="6" activeTab="9" xr2:uid="{ED6E2F17-5E87-419F-BC19-1F850C920647}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{ED6E2F17-5E87-419F-BC19-1F850C920647}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="1" r:id="rId1"/>
-    <sheet name="画面フロー図" sheetId="8" r:id="rId2"/>
-    <sheet name="ログイン画面" sheetId="4" r:id="rId3"/>
-    <sheet name="ログイン画面　メモ" sheetId="5" r:id="rId4"/>
-    <sheet name="管理者画面" sheetId="6" r:id="rId5"/>
-    <sheet name="管理者画面　メモ" sheetId="7" r:id="rId6"/>
-    <sheet name="ラインＮＯマスタ変更画面" sheetId="2" r:id="rId7"/>
-    <sheet name="ラインＮＯマスタ変更画面　メモ" sheetId="3" r:id="rId8"/>
-    <sheet name="製品マスタ変更画面" sheetId="9" r:id="rId9"/>
-    <sheet name="製品マスタ変更画面　メモ" sheetId="10" r:id="rId10"/>
+    <sheet name="変更履歴" sheetId="11" r:id="rId2"/>
+    <sheet name="画面フロー図" sheetId="8" r:id="rId3"/>
+    <sheet name="ログイン画面" sheetId="4" r:id="rId4"/>
+    <sheet name="ログイン画面　メモ" sheetId="5" r:id="rId5"/>
+    <sheet name="管理者画面" sheetId="6" r:id="rId6"/>
+    <sheet name="管理者画面　メモ" sheetId="7" r:id="rId7"/>
+    <sheet name="ラインＮＯマスタ変更画面" sheetId="2" r:id="rId8"/>
+    <sheet name="ラインＮＯマスタ変更画面　メモ" sheetId="3" r:id="rId9"/>
+    <sheet name="製品マスタ変更画面" sheetId="9" r:id="rId10"/>
+    <sheet name="製品マスタ変更画面　メモ" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -75,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="165">
   <si>
     <t>加重平均</t>
     <rPh sb="0" eb="2">
@@ -849,25 +850,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>・削除（20190816の段階で機能として追加するか検討中）</t>
-    <rPh sb="1" eb="3">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ダンカイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="26" eb="29">
-      <t>ケントウチュウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ラインNOが表示されている状態で「削除」ボタンを押すと、削除の確認を促す警告を表示する</t>
     <rPh sb="6" eb="8">
       <t>ヒョウジ</t>
@@ -2124,6 +2106,36 @@
       <t>モド</t>
     </rPh>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・削除</t>
+    <rPh sb="1" eb="3">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>変更履歴</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更履歴を記載していくシート</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2506,6 +2518,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2513,15 +2534,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8031,7 +8043,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ラインＮＯマスタ変更画面!$C$14:$Z$15" spid="_x0000_s3245"/>
+                  <a14:cameraTool cellRange="ラインＮＯマスタ変更画面!$C$14:$Z$15" spid="_x0000_s3253"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -10461,6 +10473,136 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>15679</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>7839</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>799629</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>109753</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="右中かっこ 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA5E1509-F2CC-4688-AD46-517A07A95D95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4688025" y="2312654"/>
+          <a:ext cx="1591419" cy="2571358"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1097529</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>7840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>439011</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>67420</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="テキスト ボックス 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF60B32A-AB21-4930-BD8D-840F3EB45C72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6577344" y="2148025"/>
+          <a:ext cx="439013" cy="3022914"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="wordArtVertRtl" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>製品マスタすべてを表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10763,8 +10905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E6BF040-FED7-411C-AD9B-F263ECBDEC08}">
   <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="12"/>
@@ -10798,10 +10940,10 @@
         <v>20190816</v>
       </c>
       <c r="C2" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="36" t="s">
         <v>79</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="12" customHeight="1">
@@ -10840,10 +10982,10 @@
         <v>20190816</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12" customHeight="1">
@@ -10854,10 +10996,10 @@
         <v>20190816</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="12" customHeight="1">
@@ -10896,10 +11038,10 @@
         <v>20190817</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="12" customHeight="1">
@@ -10910,19 +11052,25 @@
         <v>20190817</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="12" customHeight="1">
       <c r="A11" s="35">
         <v>10</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="15"/>
+      <c r="B11" s="12">
+        <v>20190818</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="12" customHeight="1">
       <c r="A12" s="34">
@@ -11318,6 +11466,7 @@
     <hyperlink ref="C2" location="画面フロー図!A1" display="画面フロー図" xr:uid="{93F04A82-1216-4203-A4D0-066EF95E94F5}"/>
     <hyperlink ref="C9" location="製品マスタ変更画面!A1" display="製品マスタ変更画面" xr:uid="{A59F4A49-73FE-4C99-A5A0-A9C6141DF744}"/>
     <hyperlink ref="C10" location="'製品マスタ変更画面　メモ'!A1" display="製品マスタ変更画面　メモ" xr:uid="{0C3C380A-AEC8-4A6A-AE90-9FD0B1105BDC}"/>
+    <hyperlink ref="C11" location="変更履歴!A1" display="変更履歴" xr:uid="{50756C02-F08D-409D-B509-80C67E2D9E20}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11325,18 +11474,504 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD3A32CC-A69D-4F2E-8DD5-61F6A3FCE595}">
+  <dimension ref="C14:S30"/>
+  <sheetViews>
+    <sheetView topLeftCell="D11" zoomScale="81" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="2" width="8.6640625" style="1"/>
+    <col min="3" max="3" width="13.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.08203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="17" width="14.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="4.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="8.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="14" spans="3:19">
+      <c r="C14" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="R14" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="S14" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="3:19">
+      <c r="C15" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+    </row>
+    <row r="16" spans="3:19">
+      <c r="C16" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+    </row>
+    <row r="17" spans="3:19">
+      <c r="C17" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+    </row>
+    <row r="18" spans="3:19">
+      <c r="C18" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+    </row>
+    <row r="19" spans="3:19">
+      <c r="C19" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+    </row>
+    <row r="20" spans="3:19">
+      <c r="C20" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+    </row>
+    <row r="21" spans="3:19">
+      <c r="C21" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+    </row>
+    <row r="22" spans="3:19">
+      <c r="C22" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+    </row>
+    <row r="23" spans="3:19">
+      <c r="C23" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+    </row>
+    <row r="24" spans="3:19">
+      <c r="C24" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+    </row>
+    <row r="25" spans="3:19">
+      <c r="C25" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+    </row>
+    <row r="26" spans="3:19">
+      <c r="C26" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+    </row>
+    <row r="27" spans="3:19">
+      <c r="C27" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+    </row>
+    <row r="28" spans="3:19">
+      <c r="C28" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+    </row>
+    <row r="29" spans="3:19">
+      <c r="C29" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+    </row>
+    <row r="30" spans="3:19">
+      <c r="C30" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86C666D1-E849-4E8E-97B7-63A0DE9C13D3}">
   <dimension ref="B2:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18"/>
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -11346,102 +11981,102 @@
     </row>
     <row r="6" spans="2:5">
       <c r="C6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="D7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="D8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="E9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="C11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="D12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="E13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="2:5">
       <c r="D14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="E15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="3:7">
       <c r="C17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="3:7">
       <c r="D18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="3:7">
       <c r="E19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="3:7">
       <c r="F20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="3:7">
       <c r="F21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="3:7">
       <c r="F22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="3:7">
       <c r="G23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="3:7">
       <c r="G24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="3:7">
       <c r="G25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="3:7">
       <c r="D26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="3:7">
       <c r="C29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="3:7">
@@ -11471,7 +12106,7 @@
     </row>
     <row r="35" spans="4:6">
       <c r="D35" t="s">
-        <v>70</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="4:6">
@@ -11481,12 +12116,12 @@
     </row>
     <row r="37" spans="4:6">
       <c r="E37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="4:6">
       <c r="F38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="4:6">
@@ -11496,7 +12131,7 @@
     </row>
     <row r="40" spans="4:6">
       <c r="D40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="4:6">
@@ -11506,7 +12141,7 @@
     </row>
     <row r="42" spans="4:6">
       <c r="F42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="4:6">
@@ -11522,6 +12157,508 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{592298EE-EEB0-431B-8895-874AB8F0B5B9}">
+  <dimension ref="A1:D73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="3.9140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" style="23" customWidth="1"/>
+    <col min="3" max="3" width="16.4140625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="120.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.25" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="12" customHeight="1">
+      <c r="A1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="12" customHeight="1">
+      <c r="A2" s="34">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="36"/>
+    </row>
+    <row r="3" spans="1:4" ht="12" customHeight="1">
+      <c r="A3" s="35">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14"/>
+    </row>
+    <row r="4" spans="1:4" ht="12" customHeight="1">
+      <c r="A4" s="34">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
+    </row>
+    <row r="5" spans="1:4" ht="12" customHeight="1">
+      <c r="A5" s="35">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" spans="1:4" ht="12" customHeight="1">
+      <c r="A6" s="34">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+    </row>
+    <row r="7" spans="1:4" ht="12" customHeight="1">
+      <c r="A7" s="35">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="15"/>
+    </row>
+    <row r="8" spans="1:4" ht="12" customHeight="1">
+      <c r="A8" s="34">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="15"/>
+    </row>
+    <row r="9" spans="1:4" ht="12" customHeight="1">
+      <c r="A9" s="35">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="15"/>
+    </row>
+    <row r="10" spans="1:4" ht="12" customHeight="1">
+      <c r="A10" s="34">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" spans="1:4" ht="12" customHeight="1">
+      <c r="A11" s="35">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" spans="1:4" ht="12" customHeight="1">
+      <c r="A12" s="34">
+        <v>11</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="15"/>
+    </row>
+    <row r="13" spans="1:4" ht="12" customHeight="1">
+      <c r="A13" s="35">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="15"/>
+    </row>
+    <row r="14" spans="1:4" ht="12" customHeight="1">
+      <c r="A14" s="34">
+        <v>13</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="15"/>
+    </row>
+    <row r="15" spans="1:4" ht="12" customHeight="1">
+      <c r="A15" s="35">
+        <v>14</v>
+      </c>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
+    </row>
+    <row r="16" spans="1:4" ht="12" customHeight="1">
+      <c r="A16" s="34">
+        <v>15</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="15"/>
+    </row>
+    <row r="17" spans="1:4" ht="12" customHeight="1">
+      <c r="A17" s="35">
+        <v>16</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="18"/>
+    </row>
+    <row r="18" spans="1:4" ht="12" customHeight="1">
+      <c r="A18" s="11"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="15"/>
+    </row>
+    <row r="19" spans="1:4" ht="12" customHeight="1">
+      <c r="A19" s="11"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="18"/>
+    </row>
+    <row r="20" spans="1:4" ht="12" customHeight="1">
+      <c r="A20" s="11"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="15"/>
+    </row>
+    <row r="21" spans="1:4" ht="12" customHeight="1">
+      <c r="A21" s="11"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="18"/>
+    </row>
+    <row r="22" spans="1:4" ht="12" customHeight="1">
+      <c r="A22" s="11"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="18"/>
+    </row>
+    <row r="23" spans="1:4" ht="12" customHeight="1">
+      <c r="A23" s="11"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="18"/>
+    </row>
+    <row r="24" spans="1:4" ht="12" customHeight="1">
+      <c r="A24" s="11"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="18"/>
+    </row>
+    <row r="25" spans="1:4" ht="12" customHeight="1">
+      <c r="A25" s="11"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="15"/>
+    </row>
+    <row r="26" spans="1:4" ht="12" customHeight="1">
+      <c r="A26" s="11"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="15"/>
+    </row>
+    <row r="27" spans="1:4" ht="12" customHeight="1">
+      <c r="A27" s="11"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="15"/>
+    </row>
+    <row r="28" spans="1:4" ht="12" customHeight="1">
+      <c r="A28" s="11"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="15"/>
+    </row>
+    <row r="29" spans="1:4" ht="12" customHeight="1">
+      <c r="A29" s="11"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="15"/>
+    </row>
+    <row r="30" spans="1:4" ht="12" customHeight="1">
+      <c r="A30" s="11"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="15"/>
+    </row>
+    <row r="31" spans="1:4" ht="12" customHeight="1">
+      <c r="A31" s="11"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="15"/>
+    </row>
+    <row r="32" spans="1:4" ht="12" customHeight="1">
+      <c r="A32" s="11"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="15"/>
+    </row>
+    <row r="33" spans="1:4" ht="12" customHeight="1">
+      <c r="A33" s="11"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="15"/>
+    </row>
+    <row r="34" spans="1:4" ht="12" customHeight="1">
+      <c r="A34" s="11"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="15"/>
+    </row>
+    <row r="35" spans="1:4" ht="12" customHeight="1">
+      <c r="A35" s="11"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="15"/>
+    </row>
+    <row r="36" spans="1:4" ht="12" customHeight="1">
+      <c r="A36" s="11"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="15"/>
+    </row>
+    <row r="37" spans="1:4" ht="12" customHeight="1">
+      <c r="A37" s="11"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="15"/>
+    </row>
+    <row r="38" spans="1:4" ht="12" customHeight="1">
+      <c r="A38" s="11"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="15"/>
+    </row>
+    <row r="39" spans="1:4" ht="12" customHeight="1">
+      <c r="A39" s="11"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="15"/>
+    </row>
+    <row r="40" spans="1:4" ht="12" customHeight="1">
+      <c r="A40" s="11"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="15"/>
+    </row>
+    <row r="41" spans="1:4" ht="12" customHeight="1">
+      <c r="A41" s="11"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="15"/>
+    </row>
+    <row r="42" spans="1:4" ht="12" customHeight="1">
+      <c r="A42" s="11"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="15"/>
+    </row>
+    <row r="43" spans="1:4" ht="12" customHeight="1">
+      <c r="A43" s="11"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="15"/>
+    </row>
+    <row r="44" spans="1:4" ht="12" customHeight="1">
+      <c r="A44" s="19"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="15"/>
+    </row>
+    <row r="45" spans="1:4" ht="12" customHeight="1">
+      <c r="A45" s="19"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="20"/>
+    </row>
+    <row r="46" spans="1:4" ht="12" customHeight="1">
+      <c r="A46" s="11"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="15"/>
+    </row>
+    <row r="47" spans="1:4" ht="12" customHeight="1">
+      <c r="A47" s="11"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="15"/>
+    </row>
+    <row r="48" spans="1:4" ht="12" customHeight="1">
+      <c r="A48" s="11"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="21"/>
+    </row>
+    <row r="49" spans="1:4" ht="12" customHeight="1">
+      <c r="A49" s="11"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="15"/>
+    </row>
+    <row r="50" spans="1:4" ht="12" customHeight="1">
+      <c r="A50" s="11"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="21"/>
+    </row>
+    <row r="51" spans="1:4" ht="12" customHeight="1">
+      <c r="A51" s="11"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="18"/>
+    </row>
+    <row r="52" spans="1:4" ht="12" customHeight="1">
+      <c r="A52" s="11"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="18"/>
+    </row>
+    <row r="53" spans="1:4" ht="12" customHeight="1">
+      <c r="A53" s="11"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="18"/>
+    </row>
+    <row r="54" spans="1:4" ht="12" customHeight="1">
+      <c r="A54" s="11"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="15"/>
+    </row>
+    <row r="55" spans="1:4" ht="12" customHeight="1">
+      <c r="A55" s="11"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="18"/>
+    </row>
+    <row r="56" spans="1:4" ht="12" customHeight="1">
+      <c r="A56" s="11"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="18"/>
+    </row>
+    <row r="57" spans="1:4" ht="12" customHeight="1">
+      <c r="A57" s="11"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="18"/>
+    </row>
+    <row r="58" spans="1:4" ht="12" customHeight="1">
+      <c r="A58" s="11"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="18"/>
+    </row>
+    <row r="59" spans="1:4" ht="12" customHeight="1">
+      <c r="A59" s="11"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="18"/>
+    </row>
+    <row r="60" spans="1:4" ht="12" customHeight="1">
+      <c r="A60" s="11"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="18"/>
+    </row>
+    <row r="61" spans="1:4" ht="12" customHeight="1">
+      <c r="A61" s="11"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="18"/>
+    </row>
+    <row r="62" spans="1:4" ht="12" customHeight="1">
+      <c r="A62" s="11"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="18"/>
+    </row>
+    <row r="63" spans="1:4" ht="12" customHeight="1">
+      <c r="A63" s="11"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="18"/>
+    </row>
+    <row r="64" spans="1:4" ht="12" customHeight="1">
+      <c r="A64" s="11"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="18"/>
+    </row>
+    <row r="65" spans="1:4" ht="12" customHeight="1">
+      <c r="A65" s="11"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="18"/>
+    </row>
+    <row r="66" spans="1:4" ht="12" customHeight="1">
+      <c r="A66" s="11"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="18"/>
+    </row>
+    <row r="67" spans="1:4" ht="12" customHeight="1">
+      <c r="A67" s="11"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="18"/>
+    </row>
+    <row r="68" spans="1:4" ht="12" customHeight="1">
+      <c r="A68" s="11"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="18"/>
+    </row>
+    <row r="69" spans="1:4" ht="12" customHeight="1">
+      <c r="A69" s="11"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="18"/>
+    </row>
+    <row r="70" spans="1:4" ht="12" customHeight="1">
+      <c r="A70" s="11"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="18"/>
+    </row>
+    <row r="71" spans="1:4" ht="12" customHeight="1">
+      <c r="A71" s="11"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="18"/>
+    </row>
+    <row r="72" spans="1:4" ht="12" customHeight="1">
+      <c r="A72" s="11"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="18"/>
+    </row>
+    <row r="73" spans="1:4" ht="12" customHeight="1">
+      <c r="A73" s="11"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="18"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6521B4A7-CE3B-4BC3-B8E4-4BD3D3222D7E}">
   <dimension ref="A1:AG6"/>
   <sheetViews>
@@ -11532,216 +12669,216 @@
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:33">
-      <c r="A1" s="43" t="s">
-        <v>130</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="42"/>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="42"/>
-      <c r="AD1" s="42"/>
-      <c r="AE1" s="42"/>
-      <c r="AF1" s="42"/>
-      <c r="AG1" s="42"/>
+      <c r="A1" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="40"/>
+      <c r="AG1" s="40"/>
     </row>
     <row r="2" spans="1:33">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42"/>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42"/>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="42"/>
-      <c r="AF2" s="42"/>
-      <c r="AG2" s="42"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="40"/>
     </row>
     <row r="3" spans="1:33">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="42"/>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="42"/>
-      <c r="AC3" s="42"/>
-      <c r="AD3" s="42"/>
-      <c r="AE3" s="42"/>
-      <c r="AF3" s="42"/>
-      <c r="AG3" s="42"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="40"/>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="40"/>
     </row>
     <row r="4" spans="1:33">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="42"/>
-      <c r="AG4" s="42"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="40"/>
+      <c r="AA4" s="40"/>
+      <c r="AB4" s="40"/>
+      <c r="AC4" s="40"/>
+      <c r="AD4" s="40"/>
+      <c r="AE4" s="40"/>
+      <c r="AF4" s="40"/>
+      <c r="AG4" s="40"/>
     </row>
     <row r="5" spans="1:33">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="42"/>
-      <c r="W5" s="42"/>
-      <c r="X5" s="42"/>
-      <c r="Y5" s="42"/>
-      <c r="Z5" s="42"/>
-      <c r="AA5" s="42"/>
-      <c r="AB5" s="42"/>
-      <c r="AC5" s="42"/>
-      <c r="AD5" s="42"/>
-      <c r="AE5" s="42"/>
-      <c r="AF5" s="42"/>
-      <c r="AG5" s="42"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="40"/>
+      <c r="U5" s="40"/>
+      <c r="V5" s="40"/>
+      <c r="W5" s="40"/>
+      <c r="X5" s="40"/>
+      <c r="Y5" s="40"/>
+      <c r="Z5" s="40"/>
+      <c r="AA5" s="40"/>
+      <c r="AB5" s="40"/>
+      <c r="AC5" s="40"/>
+      <c r="AD5" s="40"/>
+      <c r="AE5" s="40"/>
+      <c r="AF5" s="40"/>
+      <c r="AG5" s="40"/>
     </row>
     <row r="6" spans="1:33">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="42"/>
-      <c r="T6" s="42"/>
-      <c r="U6" s="42"/>
-      <c r="V6" s="42"/>
-      <c r="W6" s="42"/>
-      <c r="X6" s="42"/>
-      <c r="Y6" s="42"/>
-      <c r="Z6" s="42"/>
-      <c r="AA6" s="42"/>
-      <c r="AB6" s="42"/>
-      <c r="AC6" s="42"/>
-      <c r="AD6" s="42"/>
-      <c r="AE6" s="42"/>
-      <c r="AF6" s="42"/>
-      <c r="AG6" s="42"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="40"/>
+      <c r="X6" s="40"/>
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="40"/>
+      <c r="AA6" s="40"/>
+      <c r="AB6" s="40"/>
+      <c r="AC6" s="40"/>
+      <c r="AD6" s="40"/>
+      <c r="AE6" s="40"/>
+      <c r="AF6" s="40"/>
+      <c r="AG6" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11753,7 +12890,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6EA8B2D-5D38-4432-B4BE-BFAC0D1F5C85}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -11772,7 +12909,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ABB6B65-5B89-4D0F-835B-1A23519EC18F}">
   <dimension ref="B2:E23"/>
   <sheetViews>
@@ -11789,7 +12926,7 @@
     </row>
     <row r="4" spans="2:5">
       <c r="C4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -11804,72 +12941,72 @@
     </row>
     <row r="8" spans="2:5">
       <c r="D8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="D9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="D11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="E12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="D13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="2:5">
       <c r="E14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="2:5">
       <c r="C16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="4:5">
       <c r="D17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="4:5">
       <c r="D18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="4:5">
       <c r="D19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="4:5">
       <c r="D20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="4:5">
       <c r="E21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="4:5">
       <c r="D22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="4:5">
       <c r="E23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -11878,7 +13015,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCAE1002-3ACA-4B90-AFAB-835F50E4CF68}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -11894,7 +13031,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8449818-2950-4A53-B64C-52037D5AF9F3}">
   <dimension ref="B2:D16"/>
   <sheetViews>
@@ -11906,7 +13043,7 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="2:4">
@@ -11916,42 +13053,42 @@
     </row>
     <row r="6" spans="2:4">
       <c r="C6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="D7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="C9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="D10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="C12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="D13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="C15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="D16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -11960,7 +13097,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB94BF4F-2656-4B2D-89F5-04E6049772B6}">
   <dimension ref="C13:Z15"/>
   <sheetViews>
@@ -11985,11 +13122,11 @@
   </cols>
   <sheetData>
     <row r="13" spans="3:26">
-      <c r="X13" s="38" t="s">
+      <c r="X13" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="Y13" s="38"/>
-      <c r="Z13" s="38"/>
+      <c r="Y13" s="41"/>
+      <c r="Z13" s="41"/>
     </row>
     <row r="14" spans="3:26">
       <c r="C14" s="6" t="s">
@@ -12067,10 +13204,10 @@
     </row>
     <row r="15" spans="3:26">
       <c r="C15" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>25</v>
@@ -12149,12 +13286,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41C55A6-034E-4AB5-AE25-4EA61AF8A4CD}">
   <dimension ref="B2:Q59"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AQ29" sqref="AQ29"/>
+    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18"/>
@@ -12354,24 +13491,24 @@
     <row r="27" spans="3:17">
       <c r="D27" s="27"/>
       <c r="E27" s="28"/>
-      <c r="F27" s="39" t="s">
+      <c r="F27" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39" t="s">
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39" t="s">
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="O27" s="39"/>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="40"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="43"/>
     </row>
     <row r="28" spans="3:17">
       <c r="D28" s="30"/>
@@ -12405,7 +13542,7 @@
     </row>
     <row r="32" spans="3:17">
       <c r="E32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="3:6">
@@ -12415,7 +13552,7 @@
     </row>
     <row r="34" spans="3:6">
       <c r="F34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="3:6">
@@ -12425,22 +13562,22 @@
     </row>
     <row r="36" spans="3:6">
       <c r="D36" t="s">
-        <v>70</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="3:6">
       <c r="E37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="3:6">
       <c r="E38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="3:6">
       <c r="F39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40" spans="3:6">
@@ -12450,7 +13587,7 @@
     </row>
     <row r="41" spans="3:6">
       <c r="D41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="3:6">
@@ -12460,7 +13597,7 @@
     </row>
     <row r="43" spans="3:6">
       <c r="F43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="3:6">
@@ -12470,27 +13607,27 @@
     </row>
     <row r="46" spans="3:6">
       <c r="C46" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="3:6">
       <c r="D47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48" spans="3:6">
       <c r="E48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" spans="3:9">
       <c r="D49" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="3:9">
       <c r="E50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="53" spans="3:9">
@@ -12513,7 +13650,7 @@
         <v>62</v>
       </c>
       <c r="I56" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" spans="3:9">
@@ -12538,490 +13675,4 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD3A32CC-A69D-4F2E-8DD5-61F6A3FCE595}">
-  <dimension ref="C14:S30"/>
-  <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="81" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
-  <cols>
-    <col min="1" max="2" width="8.6640625" style="1"/>
-    <col min="3" max="3" width="13.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.08203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="17" width="14.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="4.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="8.6640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="14" spans="3:19">
-      <c r="C14" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="R14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="S14" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" spans="3:19">
-      <c r="C15" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-    </row>
-    <row r="16" spans="3:19">
-      <c r="C16" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-    </row>
-    <row r="17" spans="3:19">
-      <c r="C17" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-    </row>
-    <row r="18" spans="3:19">
-      <c r="C18" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-    </row>
-    <row r="19" spans="3:19">
-      <c r="C19" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D19" s="2">
-        <v>1</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-    </row>
-    <row r="20" spans="3:19">
-      <c r="C20" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D20" s="2">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-    </row>
-    <row r="21" spans="3:19">
-      <c r="C21" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D21" s="2">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-    </row>
-    <row r="22" spans="3:19">
-      <c r="C22" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D22" s="2">
-        <v>1</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-    </row>
-    <row r="23" spans="3:19">
-      <c r="C23" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D23" s="2">
-        <v>1</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-    </row>
-    <row r="24" spans="3:19">
-      <c r="C24" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D24" s="2">
-        <v>1</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-    </row>
-    <row r="25" spans="3:19">
-      <c r="C25" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D25" s="2">
-        <v>1</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-    </row>
-    <row r="26" spans="3:19">
-      <c r="C26" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D26" s="2">
-        <v>1</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-    </row>
-    <row r="27" spans="3:19">
-      <c r="C27" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D27" s="2">
-        <v>1</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-    </row>
-    <row r="28" spans="3:19">
-      <c r="C28" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D28" s="2">
-        <v>1</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-    </row>
-    <row r="29" spans="3:19">
-      <c r="C29" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D29" s="2">
-        <v>1</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-    </row>
-    <row r="30" spans="3:19">
-      <c r="C30" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D30" s="2">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>